--- a/src/main/resources/Product-Data.xlsx
+++ b/src/main/resources/Product-Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\workspace\InventoryLite\CostingLite\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F77402-678F-4D64-B8FF-2F945E65CAA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A045D2-C95F-4D58-9A9A-25663950BA14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1ED04D46-48FB-4BBE-85EA-4F189B787BCE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{1ED04D46-48FB-4BBE-85EA-4F189B787BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$A$8</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="123">
   <si>
     <t>6X3 Yarn Bowl</t>
   </si>
@@ -149,13 +150,275 @@
   </si>
   <si>
     <t>product_id</t>
+  </si>
+  <si>
+    <t>LC/Item</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Profit</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>List price</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>List Price</t>
+  </si>
+  <si>
+    <t>€ List price</t>
+  </si>
+  <si>
+    <t>RM Charges</t>
+  </si>
+  <si>
+    <t>Prod Profit</t>
+  </si>
+  <si>
+    <t>WH-137 (6x4) - Box</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>WH-101(5") - Long Tailed Peacock</t>
+  </si>
+  <si>
+    <t>WH-118 (6x4) - Box</t>
+  </si>
+  <si>
+    <t>WH-110 (6x4) - Box</t>
+  </si>
+  <si>
+    <t>WH-127(6x4) - Box</t>
+  </si>
+  <si>
+    <t>WH-111(6") - Budha</t>
+  </si>
+  <si>
+    <t>WH-113(4" , 2 - Owls)</t>
+  </si>
+  <si>
+    <t>WH-115(6") -Spec Holder</t>
+  </si>
+  <si>
+    <t>Wooden Peacock With Baby - kH119</t>
+  </si>
+  <si>
+    <t>Wooden Dancing Peacock  - KH116</t>
+  </si>
+  <si>
+    <t>Elephant Dodi in Trunk - KH069</t>
+  </si>
+  <si>
+    <t>Carved camel Jali Style - KH084</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carved Pen Stand KH-454</t>
+  </si>
+  <si>
+    <t>Wooden Peacock Love Birds - KH108</t>
+  </si>
+  <si>
+    <t>Wooden Parrot Love birds - KH107</t>
+  </si>
+  <si>
+    <t>Elephant Letter Opener - KH1007</t>
+  </si>
+  <si>
+    <t>Birds Letter Opener - KH 1010</t>
+  </si>
+  <si>
+    <t>Wooden Key Chain - KH1000</t>
+  </si>
+  <si>
+    <t>Jalee Style Latter Opener -KH1009</t>
+  </si>
+  <si>
+    <t>Marble Pen Holder -KH823</t>
+  </si>
+  <si>
+    <t>Marble Napkin Holder - KH821</t>
+  </si>
+  <si>
+    <t>Tabletop with Watch - KH819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC-004 - 6x4 - Yarn Bowl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC-022 - 6x4 - Coin Box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC-005(11x11) - Chinese Checker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC-008 (7x5x2) - Poker Box </t>
+  </si>
+  <si>
+    <t>NC-002 -(7") Magnetic Chess</t>
+  </si>
+  <si>
+    <t>WH-10137 - Wooden Coasters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soup  Bowl (Set Of 2) </t>
+  </si>
+  <si>
+    <t>Knitting Bowl - NC 008 - 6 x 3</t>
+  </si>
+  <si>
+    <t>Knitting Bowl - NC -006 - 7 x 3</t>
+  </si>
+  <si>
+    <t>Knitting Needles - 3mm</t>
+  </si>
+  <si>
+    <t>Knitting Needles - 5mm</t>
+  </si>
+  <si>
+    <t>Shawl Pins -1056</t>
+  </si>
+  <si>
+    <t>Shawl Pins -1058</t>
+  </si>
+  <si>
+    <t>Shawl Pins -1060</t>
+  </si>
+  <si>
+    <t>Knit Bowl - B2- NC 008 - 6 x 3</t>
+  </si>
+  <si>
+    <t>KnitBowl - B2 - NC -006 - 7 x 3</t>
+  </si>
+  <si>
+    <t>Mobile Phone Holder - MH01</t>
+  </si>
+  <si>
+    <t>AW800003-2 23cm Bamboo SP KN( US Size 2/2.75mm )</t>
+  </si>
+  <si>
+    <t>AW800003-6 23cm Bamboo SP ( US Size 6/4.0mm )</t>
+  </si>
+  <si>
+    <t>AW800003-7 23cm Bamboo SP ( US Size 7/4.5mm )</t>
+  </si>
+  <si>
+    <t>AW800003-9 23cm Bamboo SP ( US Size 9/5.5mm )</t>
+  </si>
+  <si>
+    <t>AW800003-9 23cm Bamboo SP ( UK Size 2/7.0mm )</t>
+  </si>
+  <si>
+    <t>AW800034-2 23cm Bamboo SP ( US Size 11/8.0mm )</t>
+  </si>
+  <si>
+    <t>AW800006-15 - 34cm Bamboo SP ( US Size 15/10mm )</t>
+  </si>
+  <si>
+    <t>AW800012-6 Bamboo Circular  120cm(47 2/8")   4mm(US Size 6)</t>
+  </si>
+  <si>
+    <t>AW800047-10 Bamboo Circular  40cm(15 6/8") long, 6mm(US Size 10)</t>
+  </si>
+  <si>
+    <t>AW830098 Bamboo Circular Knitting Needle 40cm(15 6/8") 2.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW830127 7mm Bamboo Circular  80cm(31 4/8") long, </t>
+  </si>
+  <si>
+    <t>AWB0080689 Bamboo &amp; Stainless Steel Circular  81cm(31 7/8"): 4.5mm( 1/8")</t>
+  </si>
+  <si>
+    <t>Lucet Braiding Tool - SH-101</t>
+  </si>
+  <si>
+    <t>Shawl Pin - SH-201</t>
+  </si>
+  <si>
+    <t>Drop Spindle -SH -301</t>
+  </si>
+  <si>
+    <t>Shawl Pin - HSPA-12</t>
+  </si>
+  <si>
+    <t>Shawl Pin - HSPA-17</t>
+  </si>
+  <si>
+    <t>Shawl Pin - HSPA-20</t>
+  </si>
+  <si>
+    <t>Shawl Pin - HSPA-23</t>
+  </si>
+  <si>
+    <t>Shawl Pin - HSPA-24</t>
+  </si>
+  <si>
+    <t>KnitBowl-B4-NC 008-6 x 3</t>
+  </si>
+  <si>
+    <t>Wooden Yarn Holder -SH-402</t>
+  </si>
+  <si>
+    <t>KnitBowl-MIX-B4-NC 009-7 x 3</t>
+  </si>
+  <si>
+    <t>KnitBowl-Teak-B4-NC 008-6 x 3</t>
+  </si>
+  <si>
+    <t>KnitBowl-B6-NC 008-6 x 3</t>
+  </si>
+  <si>
+    <t>Crochet Hook - 5 Pairs of 4</t>
+  </si>
+  <si>
+    <t>Drop Spindle</t>
+  </si>
+  <si>
+    <t>Nostepinne -SK-542</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-80C]"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,18 +426,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -184,13 +512,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3091C074-0EA3-4AC5-935B-A5D53EEEF69F}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -620,11 +991,11 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -872,4 +1243,4927 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57E63D7-A9D4-40CB-8036-A3E408FFED1A}">
+  <dimension ref="A1:AA76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.1692078924792684</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>7.3584157849585372</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2.8028712610809268</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
+        <v>10.832178152702317</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
+        <v>3.1239549222190464</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7</v>
+      </c>
+      <c r="P3" s="6">
+        <v>75.825247068916227</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6">
+        <v>2.2107921075207311</v>
+      </c>
+      <c r="U3" s="5">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>24.599999999999998</v>
+      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>28.2</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>28.500060778095516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.3011638547326285</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>15.547036745782098</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.5319914212181853</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
+        <v>20.249092257649412</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
+        <v>5.5868281804046305</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6">
+        <v>16.98</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T4" s="6">
+        <v>3.2188361452673724</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="7">
+        <v>20.075453999999997</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6">
+        <v>124.51745782098942</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.7550500428939091</v>
+      </c>
+      <c r="C5" s="5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>6.5301000857878178</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2.4218460394623955</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <v>9.8796150986559894</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6">
+        <v>2.4744285644838411</v>
+      </c>
+      <c r="O5" s="5">
+        <v>20</v>
+      </c>
+      <c r="P5" s="6">
+        <v>197.59230197311979</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>10.98</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3.4249499571060906</v>
+      </c>
+      <c r="U5" s="5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>43.92</v>
+      </c>
+      <c r="W5" s="7">
+        <v>12.981654000000001</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6">
+        <v>2.7550500428939091</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>67.679999999999993</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>63.18837111810118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.7550500428939091</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>6.5301000857878178</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.4218460394623955</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
+        <v>9.8796150986559894</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>2.4744285644838411</v>
+      </c>
+      <c r="O6" s="5">
+        <v>12</v>
+      </c>
+      <c r="P6" s="6">
+        <v>118.55538118387187</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
+        <v>10.98</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="T6" s="6">
+        <v>3.4249499571060906</v>
+      </c>
+      <c r="U6" s="5">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>21.96</v>
+      </c>
+      <c r="W6" s="7">
+        <v>12.981654000000001</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6">
+        <v>30.305550471833001</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>36.543042688018275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.7550500428939091</v>
+      </c>
+      <c r="C7" s="5">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>6.5301000857878178</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.4218460394623955</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <v>9.8796150986559894</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="N7" s="6">
+        <v>3.1145650557620805</v>
+      </c>
+      <c r="O7" s="5">
+        <v>13</v>
+      </c>
+      <c r="P7" s="6">
+        <v>128.43499628252786</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6">
+        <v>9.66</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2.1649499571060913</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="7">
+        <v>11.421018</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6">
+        <v>33.060600514726907</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>40.489345724907047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4">
+        <v>11.902536459822704</v>
+      </c>
+      <c r="C8" s="5">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>18.873804689734055</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5.1243160423219889</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>-2.564536459822703</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>16.34</v>
+      </c>
+      <c r="S8" s="6">
+        <v>2.35</v>
+      </c>
+      <c r="T8" s="6">
+        <v>-1.202536459822704</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="7">
+        <v>19.318781999999999</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6">
+        <v>285.66087503574488</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>-2.564536459822703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9.6876923076923074</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>17.973461538461539</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6.4748307692307705</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>19.77346153846154</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <v>23.039480769230771</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
+        <v>6.5302741346153859</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>23.039480769230771</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6">
+        <v>16.98</v>
+      </c>
+      <c r="S9" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1.412307692307692</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>16.98</v>
+      </c>
+      <c r="W9" s="7">
+        <v>20.075453999999997</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6">
+        <v>67.813846153846157</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>14.417412596153849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.8727137546468402</v>
+      </c>
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>4.7654275092936809</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.6100966542750934</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1.7372862453531597</v>
+      </c>
+      <c r="O10" s="5">
+        <v>84</v>
+      </c>
+      <c r="P10" s="6">
+        <v>604.80000000000007</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6">
+        <v>2.2072862453531599</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="7">
+        <v>8.1578700000000008</v>
+      </c>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6">
+        <v>29.963420074349443</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>236.88</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>145.93204460966541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4">
+        <v>20.147190832534712</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>29.98</v>
+      </c>
+      <c r="H11" s="6">
+        <v>7.541609167465289</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>34.776999999999994</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>5.871604167465283</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6">
+        <v>22.98</v>
+      </c>
+      <c r="S11" s="6">
+        <v>3.45</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-4.1271908325347111</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="7">
+        <v>27.169253999999999</v>
+      </c>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6">
+        <v>100.73595416267355</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10.073595416267358</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>16.28</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.4632045837326437</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
+        <v>19.022000000000002</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6">
+        <v>2.7897745837326431</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6">
+        <v>16.78</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0.86240458373264373</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>16.78</v>
+      </c>
+      <c r="W12" s="7">
+        <v>19.838994000000003</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6">
+        <v>80.58876333013886</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0.86240458373264373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4">
+        <v>14.550748934608404</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>25.18</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8.5300510653915964</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>26.98</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
+        <v>29.256999999999998</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6">
+        <v>6.858846065391595</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6">
+        <v>26.439</v>
+      </c>
+      <c r="T13" s="6">
+        <v>-49.097548934608412</v>
+      </c>
+      <c r="U13" s="5">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>-187.86014467304204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.431460555023145</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4.8205394449768537</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>23.472499999999997</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
+        <v>3.1480769449768511</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2.66</v>
+      </c>
+      <c r="T14" s="6">
+        <v>-1.7434605550231463</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" s="7">
+        <v>20.92671</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6">
+        <v>67.157302775115724</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4.0949574862875435</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <v>8.19</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.6754425137124564</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
+        <v>9.7184999999999988</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6">
+        <v>0.99999001371245533</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6">
+        <v>10.18</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="T15" s="6">
+        <v>1.6090425137124569</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>10.18</v>
+      </c>
+      <c r="W15" s="7">
+        <v>12.035813999999998</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6">
+        <v>36.854617376587889</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>1.6090425137124569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10.073595416267356</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>13.04</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.3528045837326439</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6">
+        <v>-0.58529541626735559</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2</v>
+      </c>
+      <c r="P16" s="6">
+        <v>29.96</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6">
+        <v>15.65</v>
+      </c>
+      <c r="S16" s="6">
+        <v>2.35</v>
+      </c>
+      <c r="T16" s="6">
+        <v>-6.3595416267355376E-2</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="7">
+        <v>18.502994999999999</v>
+      </c>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6">
+        <v>30.220786248802067</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>5.64</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>-1.1705908325347112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10.073595416267356</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>13.04</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.3528045837326439</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <v>15.98</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6">
+        <v>0.24970458373264437</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6">
+        <v>14.65</v>
+      </c>
+      <c r="S17" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T17" s="6">
+        <v>-0.88359541626735683</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="7">
+        <v>17.320694999999997</v>
+      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6">
+        <v>50.367977081336775</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.44771535183410477</v>
+      </c>
+      <c r="C18" s="5">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>2.98</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2.6130846481658949</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>9.56</v>
+      </c>
+      <c r="L18" s="6">
+        <v>3.78</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6">
+        <v>1.7485846481658949</v>
+      </c>
+      <c r="O18" s="5">
+        <v>15</v>
+      </c>
+      <c r="P18" s="6">
+        <v>56.699999999999996</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="5">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>31.454939018820212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.72753744673042031</v>
+      </c>
+      <c r="C19" s="5">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
+        <v>2.52</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.8916625532695792</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="6">
+        <v>3.98</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2.0624625532695795</v>
+      </c>
+      <c r="O19" s="5">
+        <v>5</v>
+      </c>
+      <c r="P19" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R19">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="S19" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0.82846255326957963</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="W19" s="7">
+        <v>5.8878540000000008</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>10.185524254225884</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>11.140775319617477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.39175093285484164</v>
+      </c>
+      <c r="C20" s="5">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.7090490671451581</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="6">
+        <v>2.5769999999999995</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
+        <v>0.80004406714515774</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="5"/>
+      <c r="V20" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>11.75252798564525</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.44771535183410477</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.3650846481658949</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6">
+        <v>-1.4077153518341048</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="5"/>
+      <c r="V21" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>4.4771535183410478</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7.8350186570968319</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>12.66</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3.2265813429031684</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="6">
+        <v>14.859</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6">
+        <v>1.5522463429031672</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R22">
+        <v>15.86</v>
+      </c>
+      <c r="S22" s="6">
+        <v>2.23</v>
+      </c>
+      <c r="T22" s="6">
+        <v>2.5289813429031667</v>
+      </c>
+      <c r="U22" s="5"/>
+      <c r="V22" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="7">
+        <v>18.751277999999996</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>39.175093285484159</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5.5964418979263097</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.7099581020736898</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="6">
+        <v>11.558499999999999</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
+        <v>1.0349056020736889</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23">
+        <v>12.56</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1.8875581020736898</v>
+      </c>
+      <c r="U23" s="5"/>
+      <c r="V23" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" s="7">
+        <v>14.849687999999999</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>27.982209489631551</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4.4771535183410469</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3.0228464816589526</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="6">
+        <v>10.592499999999999</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6">
+        <v>1.3475839816589523</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24">
+        <v>10.95</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1.64</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1.6848464816589515</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" s="7">
+        <v>12.946185</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>22.385767591705235</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10.559222701241875</v>
+      </c>
+      <c r="C25" s="5">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>26.18</v>
+      </c>
+      <c r="H25" s="6">
+        <v>13.481577298758125</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>83.94</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
+        <v>32.476999999999997</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6">
+        <v>13.539072298758121</v>
+      </c>
+      <c r="O25" s="5">
+        <v>12</v>
+      </c>
+      <c r="P25" s="6">
+        <v>389.72399999999993</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6">
+        <v>24.93</v>
+      </c>
+      <c r="S25" s="6">
+        <v>27.489000000000001</v>
+      </c>
+      <c r="T25" s="6">
+        <v>-21.436022701241878</v>
+      </c>
+      <c r="U25" s="5">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>124.65</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>95.733485975162424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6.1533498487870792</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>15.18</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7.3274501512129202</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>16.98</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
+        <v>19.826999999999998</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6">
+        <v>7.3821951512129189</v>
+      </c>
+      <c r="O26" s="5">
+        <v>4</v>
+      </c>
+      <c r="P26" s="6">
+        <v>79.307999999999993</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6">
+        <v>15.939</v>
+      </c>
+      <c r="T26" s="6">
+        <v>-28.10014984878708</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" s="7"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>36.856230756064598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12.827224760311433</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>27.18</v>
+      </c>
+      <c r="H27" s="6">
+        <v>12.173575239688567</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <v>33.626999999999995</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6">
+        <v>12.231320239688564</v>
+      </c>
+      <c r="O27" s="5">
+        <v>5</v>
+      </c>
+      <c r="P27" s="6">
+        <v>168.13499999999999</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6">
+        <v>28.539000000000001</v>
+      </c>
+      <c r="T27" s="6">
+        <v>-49.894024760311432</v>
+      </c>
+      <c r="U27" s="5"/>
+      <c r="V27" t="s">
+        <v>53</v>
+      </c>
+      <c r="W27" s="7"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>61.156601198442821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10.689353966926195</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <v>17.05</v>
+      </c>
+      <c r="H28" s="6">
+        <v>4.5866460330738059</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
+        <v>19.98</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6">
+        <v>2.9739460330738052</v>
+      </c>
+      <c r="O28" s="5">
+        <v>3</v>
+      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6">
+        <v>19.98</v>
+      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6">
+        <v>6.4706460330738054</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" t="s">
+        <v>53</v>
+      </c>
+      <c r="W28" s="7">
+        <v>23.622354000000001</v>
+      </c>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6">
+        <v>21.37870793385239</v>
+      </c>
+      <c r="Z28" s="6">
+        <v>8.4599999999999991</v>
+      </c>
+      <c r="AA28" s="6">
+        <v>8.9218380992214161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4">
+        <v>15.448440254809858</v>
+      </c>
+      <c r="C29" s="5">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>23.18</v>
+      </c>
+      <c r="H29" s="6">
+        <v>5.7123597451901418</v>
+      </c>
+      <c r="I29" s="5">
+        <v>4</v>
+      </c>
+      <c r="J29" s="6">
+        <v>99.92</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
+        <v>29.026999999999997</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6">
+        <v>5.7691047451901412</v>
+      </c>
+      <c r="O29" s="5">
+        <v>3</v>
+      </c>
+      <c r="P29" s="6">
+        <v>87.080999999999989</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6">
+        <v>24.339000000000002</v>
+      </c>
+      <c r="T29" s="6">
+        <v>-47.475240254809862</v>
+      </c>
+      <c r="U29" s="5">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>28.2</v>
+      </c>
+      <c r="AA29" s="6">
+        <v>-102.26896754809857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2.4539038671900135</v>
+      </c>
+      <c r="C30" s="5">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5">
+        <v>18</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <v>8.18</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4.3068961328099871</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N30" s="6">
+        <v>3.3860961328099863</v>
+      </c>
+      <c r="O30" s="5">
+        <v>8</v>
+      </c>
+      <c r="P30" s="6">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="S30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="T30" s="6">
+        <v>2.9060961328099868</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" t="s">
+        <v>53</v>
+      </c>
+      <c r="W30" s="7">
+        <v>11.799353999999999</v>
+      </c>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6">
+        <v>44.170269609420245</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>22.56</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>27.088769062479891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="4">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="H31" s="6">
+        <v>5.5368000000000013</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
+        <v>18.78</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6">
+        <v>4.9093000000000018</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="5"/>
+      <c r="V31" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6">
+        <v>38.76</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C32" s="5">
+        <v>20</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>26.34</v>
+      </c>
+      <c r="H32" s="6">
+        <v>14.394399999999999</v>
+      </c>
+      <c r="I32" s="5">
+        <v>3</v>
+      </c>
+      <c r="J32" s="6">
+        <v>84.42</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
+        <v>27.98</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6">
+        <v>10.543299999999999</v>
+      </c>
+      <c r="O32" s="5">
+        <v>12</v>
+      </c>
+      <c r="P32" s="6">
+        <v>335.76</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6">
+        <v>26.96</v>
+      </c>
+      <c r="S32" s="6">
+        <v>27.657</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="5">
+        <v>5</v>
+      </c>
+      <c r="V32">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>169.70279999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>29.98</v>
+      </c>
+      <c r="H33" s="6">
+        <v>14.588800000000001</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>31.78</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6">
+        <v>-16.12</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="5"/>
+      <c r="V33" t="s">
+        <v>53</v>
+      </c>
+      <c r="W33" s="7"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>14.588800000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>50</v>
+      </c>
+      <c r="D34" s="5">
+        <v>40</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.7808000000000004</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
+        <v>6.85</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6">
+        <v>1.5597499999999997</v>
+      </c>
+      <c r="O34" s="5">
+        <v>8</v>
+      </c>
+      <c r="P34" s="6">
+        <v>54.8</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6">
+        <v>5.95</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0.92200000000000049</v>
+      </c>
+      <c r="U34" s="5">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>11.9</v>
+      </c>
+      <c r="W34" s="7">
+        <v>7.0346849999999996</v>
+      </c>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6">
+        <v>128</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>14.321999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>50</v>
+      </c>
+      <c r="D35" s="5">
+        <v>37</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6">
+        <v>5.98</v>
+      </c>
+      <c r="H35" s="6">
+        <v>2.7408000000000006</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>6.98</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
+        <v>7.85</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="N35" s="6">
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="O35" s="5">
+        <v>4</v>
+      </c>
+      <c r="P35" s="6">
+        <v>31.4</v>
+      </c>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6">
+        <v>7.75</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="T35" s="6">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="U35" s="5">
+        <v>8</v>
+      </c>
+      <c r="V35">
+        <v>62</v>
+      </c>
+      <c r="W35" s="7">
+        <v>9.1628249999999998</v>
+      </c>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6">
+        <v>118.4</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>36.276799999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>50</v>
+      </c>
+      <c r="D36" s="5">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2.8391999999999995</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
+        <v>5.98</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="N36" s="6">
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="O36" s="5">
+        <v>29</v>
+      </c>
+      <c r="P36" s="6">
+        <v>173.42000000000002</v>
+      </c>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6">
+        <v>6.98</v>
+      </c>
+      <c r="S36" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="T36" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="U36" s="5">
+        <v>14</v>
+      </c>
+      <c r="V36">
+        <v>97.72</v>
+      </c>
+      <c r="W36" s="7">
+        <v>8.2524540000000002</v>
+      </c>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>32.68</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>124.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>50</v>
+      </c>
+      <c r="D37" s="5">
+        <v>6</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H37" s="6">
+        <v>2.8391999999999995</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6</v>
+      </c>
+      <c r="J37" s="6">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
+        <v>5.98</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="N37" s="6">
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="O37" s="5">
+        <v>35</v>
+      </c>
+      <c r="P37" s="6">
+        <v>209.3</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6">
+        <v>6.98</v>
+      </c>
+      <c r="S37" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="T37" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="U37" s="5">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>20.94</v>
+      </c>
+      <c r="W37" s="7">
+        <v>8.2524540000000002</v>
+      </c>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>33.44</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>124.97520000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="C38" s="5">
+        <v>50</v>
+      </c>
+      <c r="D38" s="5">
+        <v>35</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H38" s="6">
+        <v>2.8391999999999995</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
+        <v>5.98</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="N38" s="6">
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="O38" s="5">
+        <v>13</v>
+      </c>
+      <c r="P38" s="6">
+        <v>77.740000000000009</v>
+      </c>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6">
+        <v>6.98</v>
+      </c>
+      <c r="S38" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="T38" s="6">
+        <v>3.08</v>
+      </c>
+      <c r="U38" s="5">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>13.96</v>
+      </c>
+      <c r="W38" s="7">
+        <v>8.2524540000000002</v>
+      </c>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6">
+        <v>59.5</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>42.820000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="C39" s="5">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
+        <v>25.34</v>
+      </c>
+      <c r="H39" s="6">
+        <v>11.9344</v>
+      </c>
+      <c r="I39" s="5">
+        <v>6</v>
+      </c>
+      <c r="J39" s="6">
+        <v>162.84</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
+        <v>27.98</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6">
+        <v>9.0432999999999986</v>
+      </c>
+      <c r="O39" s="5">
+        <v>4</v>
+      </c>
+      <c r="P39" s="6">
+        <v>111.92</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="S39" s="6">
+        <v>26.606999999999999</v>
+      </c>
+      <c r="T39" s="6">
+        <v>-36.668399999999998</v>
+      </c>
+      <c r="U39" s="5">
+        <v>10</v>
+      </c>
+      <c r="V39">
+        <v>93.800000000000011</v>
+      </c>
+      <c r="W39" s="7"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>-258.90439999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="4">
+        <v>13.86</v>
+      </c>
+      <c r="C40" s="5">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>27.98</v>
+      </c>
+      <c r="H40" s="6">
+        <v>11.908800000000001</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>29.78</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
+        <v>29.98</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6">
+        <v>8.1533000000000015</v>
+      </c>
+      <c r="O40" s="5">
+        <v>8</v>
+      </c>
+      <c r="P40" s="6">
+        <v>239.84</v>
+      </c>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6">
+        <v>-16.68</v>
+      </c>
+      <c r="U40" s="5">
+        <v>1</v>
+      </c>
+      <c r="W40" s="7"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>28.2</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>60.455200000000012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>50</v>
+      </c>
+      <c r="D41" s="5">
+        <v>42</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="H41" s="6">
+        <v>4.3159999999999998</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6">
+        <v>3.7133000000000003</v>
+      </c>
+      <c r="O41" s="5">
+        <v>4</v>
+      </c>
+      <c r="P41" s="6">
+        <v>39.92</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="S41" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="T41" s="6">
+        <v>4.120000000000001</v>
+      </c>
+      <c r="U41" s="5">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>29.94</v>
+      </c>
+      <c r="W41" s="7">
+        <v>11.799353999999999</v>
+      </c>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6">
+        <v>67.2</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>22.56</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>31.529200000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="5"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.23636363636363639</v>
+      </c>
+      <c r="C43" s="5">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.41643636363636377</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="5"/>
+      <c r="V43" t="s">
+        <v>53</v>
+      </c>
+      <c r="W43" s="7"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.30909090909090908</v>
+      </c>
+      <c r="C44" s="5">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.53570909090909069</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="5"/>
+      <c r="V44" t="s">
+        <v>53</v>
+      </c>
+      <c r="W44" s="7"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6">
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.37272727272727268</v>
+      </c>
+      <c r="C45" s="5">
+        <v>10</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>1.0781818181818181</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.66232727272727265</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="5"/>
+      <c r="V45" t="s">
+        <v>53</v>
+      </c>
+      <c r="W45" s="7"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6">
+        <v>3.7272727272727266</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.37272727272727268</v>
+      </c>
+      <c r="C46" s="5">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.76007272727272701</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="5"/>
+      <c r="V46" t="s">
+        <v>53</v>
+      </c>
+      <c r="W46" s="7"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6">
+        <v>3.7272727272727266</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.4363636363636364</v>
+      </c>
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.79243636363636383</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="5"/>
+      <c r="V47" t="s">
+        <v>53</v>
+      </c>
+      <c r="W47" s="7"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6">
+        <v>4.3636363636363642</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.32727272727272727</v>
+      </c>
+      <c r="C48" s="5">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1.0935272727272727</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="5"/>
+      <c r="V48" t="s">
+        <v>53</v>
+      </c>
+      <c r="W48" s="7"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6">
+        <v>3.2727272727272725</v>
+      </c>
+      <c r="Z48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.53636363636363638</v>
+      </c>
+      <c r="C49" s="5">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.98043636363636377</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="5"/>
+      <c r="V49" t="s">
+        <v>53</v>
+      </c>
+      <c r="W49" s="7"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6">
+        <v>5.3636363636363633</v>
+      </c>
+      <c r="Z49" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="C50" s="5">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="5"/>
+      <c r="V50" t="s">
+        <v>53</v>
+      </c>
+      <c r="W50" s="7"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6">
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="Z50" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.28181818181818186</v>
+      </c>
+      <c r="C51" s="5">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5">
+        <v>10</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.56298181818181803</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="5"/>
+      <c r="V51" t="s">
+        <v>53</v>
+      </c>
+      <c r="W51" s="7"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6">
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="Z51" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.23636363636363639</v>
+      </c>
+      <c r="C52" s="5">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.41643636363636377</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="5"/>
+      <c r="V52" t="s">
+        <v>53</v>
+      </c>
+      <c r="W52" s="7"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6">
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="Z52" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.37272727272727268</v>
+      </c>
+      <c r="C53" s="5">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6">
+        <v>1.0781818181818181</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.66232727272727265</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="5"/>
+      <c r="V53" t="s">
+        <v>53</v>
+      </c>
+      <c r="W53" s="7"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6">
+        <v>3.7272727272727266</v>
+      </c>
+      <c r="Z53" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1.1181818181818182</v>
+      </c>
+      <c r="C54" s="5">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5">
+        <v>10</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1.0898181818181818</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="5"/>
+      <c r="V54" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="7"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6">
+        <v>11.181818181818182</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1.1731045802720024</v>
+      </c>
+      <c r="C55" s="5">
+        <v>10</v>
+      </c>
+      <c r="D55" s="5">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6">
+        <v>4.16</v>
+      </c>
+      <c r="H55" s="6">
+        <v>2.8204954197279979</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6">
+        <v>4.92</v>
+      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6">
+        <v>5.26</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6">
+        <v>2.2589954197279973</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="5">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0</v>
+      </c>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6">
+        <v>9.384836642176019</v>
+      </c>
+      <c r="Z55" s="6">
+        <v>1.52</v>
+      </c>
+      <c r="AA55" s="6">
+        <v>2.8204954197279979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1.1731045802720024</v>
+      </c>
+      <c r="C56" s="5">
+        <v>20</v>
+      </c>
+      <c r="D56" s="5">
+        <v>17</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6">
+        <v>4.28</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2.9356954197279981</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6">
+        <v>5.48</v>
+      </c>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6">
+        <v>2.4426954197279978</v>
+      </c>
+      <c r="O56" s="5">
+        <v>2</v>
+      </c>
+      <c r="P56" s="6">
+        <v>10.96</v>
+      </c>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="5">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0</v>
+      </c>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6">
+        <v>19.942777864624041</v>
+      </c>
+      <c r="Z56" s="6">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="AA56" s="6">
+        <v>4.8853908394559955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="4">
+        <v>7.2620759731123954</v>
+      </c>
+      <c r="C57" s="5">
+        <v>5</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6">
+        <v>8.98</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1.3587240268876053</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6">
+        <v>9.74</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6">
+        <v>14.78</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6">
+        <v>4.1192240268876041</v>
+      </c>
+      <c r="O57" s="5">
+        <v>2</v>
+      </c>
+      <c r="P57" s="6">
+        <v>29.56</v>
+      </c>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="S57" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="T57" s="6">
+        <v>4.2579240268876051</v>
+      </c>
+      <c r="U57" s="5">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>29.96</v>
+      </c>
+      <c r="W57" s="7">
+        <v>17.710853999999998</v>
+      </c>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="AA57" s="6">
+        <v>18.113020134438024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="4">
+        <v>8.3109250095165592</v>
+      </c>
+      <c r="C58" s="5">
+        <v>25</v>
+      </c>
+      <c r="D58" s="5">
+        <v>24</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6">
+        <v>16.18</v>
+      </c>
+      <c r="H58" s="6">
+        <v>5.1618749904834402</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6">
+        <v>19.98</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6">
+        <v>5.3523749904834403</v>
+      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6">
+        <v>19.98</v>
+      </c>
+      <c r="S58" s="6">
+        <v>3</v>
+      </c>
+      <c r="T58" s="6">
+        <v>5.2490749904834413</v>
+      </c>
+      <c r="U58" s="5">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>19.98</v>
+      </c>
+      <c r="W58" s="7">
+        <v>23.622354000000001</v>
+      </c>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6">
+        <v>199.46220022839742</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="AA58" s="6">
+        <v>5.2490749904834413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="4">
+        <v>13.221926151503617</v>
+      </c>
+      <c r="C59" s="5">
+        <v>16</v>
+      </c>
+      <c r="D59" s="5">
+        <v>12</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6">
+        <v>20.98</v>
+      </c>
+      <c r="H59" s="6">
+        <v>3.8988738484963834</v>
+      </c>
+      <c r="I59" s="5">
+        <v>3</v>
+      </c>
+      <c r="J59" s="6">
+        <v>65.94</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6">
+        <v>22.98</v>
+      </c>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6">
+        <v>2.9463738484963833</v>
+      </c>
+      <c r="O59" s="5">
+        <v>1</v>
+      </c>
+      <c r="P59" s="6">
+        <v>22.98</v>
+      </c>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6">
+        <v>26.98</v>
+      </c>
+      <c r="S59" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="T59" s="6">
+        <v>5.5380738484963832</v>
+      </c>
+      <c r="U59" s="5"/>
+      <c r="V59" t="s">
+        <v>53</v>
+      </c>
+      <c r="W59" s="7">
+        <v>31.898453999999997</v>
+      </c>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6">
+        <v>158.6631138180434</v>
+      </c>
+      <c r="Z59" s="6">
+        <v>11.28</v>
+      </c>
+      <c r="AA59" s="6">
+        <v>14.642995393985535</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="4">
+        <v>16.527407689379523</v>
+      </c>
+      <c r="C60" s="5">
+        <v>20</v>
+      </c>
+      <c r="D60" s="5">
+        <v>12</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6">
+        <v>22.98</v>
+      </c>
+      <c r="H60" s="6">
+        <v>2.5133923106204774</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2</v>
+      </c>
+      <c r="J60" s="6">
+        <v>47.96</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6">
+        <v>23.98</v>
+      </c>
+      <c r="M60" s="6">
+        <v>2.59</v>
+      </c>
+      <c r="N60" s="6">
+        <v>2.0425923106204777</v>
+      </c>
+      <c r="O60" s="5">
+        <v>6</v>
+      </c>
+      <c r="P60" s="6">
+        <v>143.88</v>
+      </c>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6">
+        <v>25.98</v>
+      </c>
+      <c r="S60" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="T60" s="6">
+        <v>1.952592310620479</v>
+      </c>
+      <c r="U60" s="5"/>
+      <c r="V60" t="s">
+        <v>53</v>
+      </c>
+      <c r="W60" s="7">
+        <v>30.716153999999996</v>
+      </c>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6">
+        <v>198.32889227255427</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>22.56</v>
+      </c>
+      <c r="AA60" s="6">
+        <v>17.282338484963823</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="4">
+        <v>4.0421317091739626</v>
+      </c>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5">
+        <v>53</v>
+      </c>
+      <c r="E61" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6">
+        <v>7.58</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1.1746682908260373</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6">
+        <v>10.98</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6">
+        <v>2.1061682908260382</v>
+      </c>
+      <c r="O61" s="5">
+        <v>7</v>
+      </c>
+      <c r="P61" s="6">
+        <v>76.86</v>
+      </c>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6">
+        <v>10.98</v>
+      </c>
+      <c r="S61" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="T61" s="6">
+        <v>2.1378682908260371</v>
+      </c>
+      <c r="U61" s="5"/>
+      <c r="V61" t="s">
+        <v>53</v>
+      </c>
+      <c r="W61" s="7">
+        <v>12.981654000000001</v>
+      </c>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6">
+        <v>214.23298058622001</v>
+      </c>
+      <c r="Z61" s="6">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="AA61" s="6">
+        <v>14.743178035782268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1.7953153878212547</v>
+      </c>
+      <c r="C62" s="5">
+        <v>50</v>
+      </c>
+      <c r="D62" s="5">
+        <v>49</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="H62" s="6">
+        <v>2.8510846121787452</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6">
+        <v>6.36</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="N62" s="6">
+        <v>3.0246846121787456</v>
+      </c>
+      <c r="O62" s="5">
+        <v>1</v>
+      </c>
+      <c r="P62" s="6">
+        <v>6.36</v>
+      </c>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6">
+        <v>5.58</v>
+      </c>
+      <c r="S62" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="T62" s="6">
+        <v>0.70868461217874534</v>
+      </c>
+      <c r="U62" s="5"/>
+      <c r="V62" t="s">
+        <v>53</v>
+      </c>
+      <c r="W62" s="7">
+        <v>6.5972339999999994</v>
+      </c>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6">
+        <v>87.970454003241485</v>
+      </c>
+      <c r="Z62" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="AA62" s="6">
+        <v>3.0246846121787456</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1.7953153878212547</v>
+      </c>
+      <c r="C63" s="5">
+        <v>50</v>
+      </c>
+      <c r="D63" s="5">
+        <v>47</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="H63" s="6">
+        <v>2.8510846121787452</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6">
+        <v>6.36</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="N63" s="6">
+        <v>3.0246846121787456</v>
+      </c>
+      <c r="O63" s="5">
+        <v>3</v>
+      </c>
+      <c r="P63" s="6">
+        <v>19.080000000000002</v>
+      </c>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6">
+        <v>5.98</v>
+      </c>
+      <c r="S63" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="T63" s="6">
+        <v>1.7966846121787454</v>
+      </c>
+      <c r="U63" s="5"/>
+      <c r="V63" t="s">
+        <v>53</v>
+      </c>
+      <c r="W63" s="7">
+        <v>7.0701540000000005</v>
+      </c>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6">
+        <v>84.379823227598962</v>
+      </c>
+      <c r="Z63" s="6">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="AA63" s="6">
+        <v>9.0740538365362369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1.7953153878212547</v>
+      </c>
+      <c r="C64" s="5">
+        <v>50</v>
+      </c>
+      <c r="D64" s="5">
+        <v>44</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="H64" s="6">
+        <v>2.8510846121787452</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="N64" s="6">
+        <v>3.4146846121787453</v>
+      </c>
+      <c r="O64" s="5">
+        <v>5</v>
+      </c>
+      <c r="P64" s="6">
+        <v>33.75</v>
+      </c>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="S64" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="T64" s="6">
+        <v>1.9806846121787451</v>
+      </c>
+      <c r="U64" s="5">
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <v>6.2</v>
+      </c>
+      <c r="W64" s="7">
+        <v>7.33026</v>
+      </c>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6">
+        <v>78.993877064135205</v>
+      </c>
+      <c r="Z64" s="6">
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="AA64" s="6">
+        <v>19.054107673072473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1.7953153878212547</v>
+      </c>
+      <c r="C65" s="5">
+        <v>50</v>
+      </c>
+      <c r="D65" s="5">
+        <v>47</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="H65" s="6">
+        <v>2.8510846121787452</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6">
+        <v>6.36</v>
+      </c>
+      <c r="M65" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="N65" s="6">
+        <v>3.0246846121787456</v>
+      </c>
+      <c r="O65" s="5">
+        <v>3</v>
+      </c>
+      <c r="P65" s="6">
+        <v>19.080000000000002</v>
+      </c>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6">
+        <v>5.58</v>
+      </c>
+      <c r="S65" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="T65" s="6">
+        <v>1.4686846121787456</v>
+      </c>
+      <c r="U65" s="5"/>
+      <c r="V65" t="s">
+        <v>53</v>
+      </c>
+      <c r="W65" s="7">
+        <v>6.5972339999999994</v>
+      </c>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6">
+        <v>84.379823227598962</v>
+      </c>
+      <c r="Z65" s="6">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="AA65" s="6">
+        <v>9.0740538365362369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1.7953153878212547</v>
+      </c>
+      <c r="C66" s="5">
+        <v>50</v>
+      </c>
+      <c r="D66" s="5">
+        <v>46</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6">
+        <v>5.84</v>
+      </c>
+      <c r="H66" s="6">
+        <v>2.8510846121787452</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6">
+        <v>6.36</v>
+      </c>
+      <c r="M66" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="N66" s="6">
+        <v>3.0246846121787456</v>
+      </c>
+      <c r="O66" s="5">
+        <v>4</v>
+      </c>
+      <c r="P66" s="6">
+        <v>25.44</v>
+      </c>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6">
+        <v>5.98</v>
+      </c>
+      <c r="S66" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="T66" s="6">
+        <v>1.7966846121787454</v>
+      </c>
+      <c r="U66" s="5"/>
+      <c r="V66" t="s">
+        <v>53</v>
+      </c>
+      <c r="W66" s="7">
+        <v>7.0701540000000005</v>
+      </c>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6">
+        <v>82.584507839777714</v>
+      </c>
+      <c r="Z66" s="6">
+        <v>3.04</v>
+      </c>
+      <c r="AA66" s="6">
+        <v>12.098738448714982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="4">
+        <v>8.4739674700381933</v>
+      </c>
+      <c r="C67" s="5">
+        <v>70</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6">
+        <v>21.98</v>
+      </c>
+      <c r="H67" s="6">
+        <v>9.5668325299618076</v>
+      </c>
+      <c r="I67" s="5">
+        <v>11</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6">
+        <v>23.98</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6">
+        <v>8.5293325299618079</v>
+      </c>
+      <c r="O67" s="5">
+        <v>47</v>
+      </c>
+      <c r="P67" s="6">
+        <v>1127.06</v>
+      </c>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6">
+        <v>22.98</v>
+      </c>
+      <c r="S67" s="6">
+        <v>5.21</v>
+      </c>
+      <c r="T67" s="6">
+        <v>8.2540325299618065</v>
+      </c>
+      <c r="U67" s="5">
+        <v>12</v>
+      </c>
+      <c r="V67">
+        <v>275.76</v>
+      </c>
+      <c r="W67" s="7">
+        <v>27.169253999999999</v>
+      </c>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="6">
+        <v>197.39999999999998</v>
+      </c>
+      <c r="AA67" s="6">
+        <v>605.16217709732655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="4">
+        <v>7.4263900961411817</v>
+      </c>
+      <c r="C68" s="5">
+        <v>20</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6">
+        <v>15.86</v>
+      </c>
+      <c r="H68" s="6">
+        <v>5.7392099038588169</v>
+      </c>
+      <c r="I68" s="5">
+        <v>5</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6">
+        <v>19.25</v>
+      </c>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6">
+        <v>5.6273599038588182</v>
+      </c>
+      <c r="O68" s="5">
+        <v>8</v>
+      </c>
+      <c r="P68" s="6">
+        <v>154</v>
+      </c>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6">
+        <v>19.25</v>
+      </c>
+      <c r="S68" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="T68" s="6">
+        <v>6.6036099038588185</v>
+      </c>
+      <c r="U68" s="5">
+        <v>7</v>
+      </c>
+      <c r="V68">
+        <v>134.75</v>
+      </c>
+      <c r="W68" s="7">
+        <v>22.759274999999999</v>
+      </c>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="AA68" s="6">
+        <v>119.94019807717636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="4">
+        <v>7.4263900961411817</v>
+      </c>
+      <c r="C69" s="5">
+        <v>20</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6">
+        <v>21.98</v>
+      </c>
+      <c r="H69" s="6">
+        <v>10.614409903858819</v>
+      </c>
+      <c r="I69" s="5">
+        <v>7</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1</v>
+      </c>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6">
+        <v>23.98</v>
+      </c>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6">
+        <v>9.5769099038588212</v>
+      </c>
+      <c r="O69" s="5">
+        <v>5</v>
+      </c>
+      <c r="P69" s="6">
+        <v>119.9</v>
+      </c>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6">
+        <v>22.98</v>
+      </c>
+      <c r="S69" s="6">
+        <v>5.21</v>
+      </c>
+      <c r="T69" s="6">
+        <v>9.301609903858818</v>
+      </c>
+      <c r="U69" s="5">
+        <v>8</v>
+      </c>
+      <c r="V69">
+        <v>183.84</v>
+      </c>
+      <c r="W69" s="7">
+        <v>27.169253999999999</v>
+      </c>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="AA69" s="6">
+        <v>196.59829807717639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="4">
+        <v>13.691110233109441</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6">
+        <v>27.98</v>
+      </c>
+      <c r="H70" s="6">
+        <v>10.109689766890559</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="5"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6">
+        <v>13.691110233109441</v>
+      </c>
+      <c r="Z70" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="AA70" s="6">
+        <v>10.109689766890559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="4">
+        <v>10.766191228763335</v>
+      </c>
+      <c r="C71" s="5">
+        <v>4</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="H71" s="6">
+        <v>8.7338087712366654</v>
+      </c>
+      <c r="I71" s="5">
+        <v>2</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="5"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6">
+        <v>21.532382457526669</v>
+      </c>
+      <c r="Z71" s="6">
+        <v>5.64</v>
+      </c>
+      <c r="AA71" s="6">
+        <v>17.467617542473331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="4">
+        <v>9.976342791504532</v>
+      </c>
+      <c r="C72" s="5">
+        <v>92</v>
+      </c>
+      <c r="D72" s="5">
+        <v>51</v>
+      </c>
+      <c r="E72" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="H72" s="6">
+        <v>6.7396572084954691</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6">
+        <v>21.98</v>
+      </c>
+      <c r="M72" s="6">
+        <v>3.03</v>
+      </c>
+      <c r="N72" s="6">
+        <v>6.153657208495467</v>
+      </c>
+      <c r="O72" s="5">
+        <v>41</v>
+      </c>
+      <c r="P72" s="6">
+        <v>901.18000000000006</v>
+      </c>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6">
+        <v>21.98</v>
+      </c>
+      <c r="S72" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="T72" s="6">
+        <v>5.8356572084954674</v>
+      </c>
+      <c r="U72" s="5"/>
+      <c r="V72" t="s">
+        <v>53</v>
+      </c>
+      <c r="W72" s="7">
+        <v>25.986953999999997</v>
+      </c>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6">
+        <v>508.79348236673115</v>
+      </c>
+      <c r="Z72" s="6">
+        <v>115.61999999999999</v>
+      </c>
+      <c r="AA72" s="6">
+        <v>252.29994554831416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="4">
+        <v>6.8942206282754901</v>
+      </c>
+      <c r="C73" s="5">
+        <v>24</v>
+      </c>
+      <c r="D73" s="5">
+        <v>24</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="H73" s="6">
+        <v>6.2217793717245105</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="M73" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="N73" s="6">
+        <v>6.4757793717245073</v>
+      </c>
+      <c r="O73" s="5"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6">
+        <v>18.98</v>
+      </c>
+      <c r="S73" s="6">
+        <v>6.14</v>
+      </c>
+      <c r="T73" s="6">
+        <v>4.71777937172451</v>
+      </c>
+      <c r="U73" s="5"/>
+      <c r="V73" t="s">
+        <v>53</v>
+      </c>
+      <c r="W73" s="7">
+        <v>22.440054</v>
+      </c>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6">
+        <v>165.46129507861176</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="4">
+        <v>1.9871577105029352</v>
+      </c>
+      <c r="C74" s="5">
+        <v>10</v>
+      </c>
+      <c r="D74" s="5">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6">
+        <v>12.68</v>
+      </c>
+      <c r="H74" s="6">
+        <v>8.8456422894970661</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="M74" s="6">
+        <v>1.98</v>
+      </c>
+      <c r="N74" s="6">
+        <v>9.9128422894970658</v>
+      </c>
+      <c r="O74" s="5"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6">
+        <v>7.14</v>
+      </c>
+      <c r="T74" s="6">
+        <v>-10.555157710502936</v>
+      </c>
+      <c r="U74" s="5"/>
+      <c r="V74" t="s">
+        <v>53</v>
+      </c>
+      <c r="W74" s="7">
+        <v>0</v>
+      </c>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6">
+        <v>19.871577105029353</v>
+      </c>
+      <c r="Z74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="4">
+        <v>6.1642443264580846</v>
+      </c>
+      <c r="C75" s="5">
+        <v>15</v>
+      </c>
+      <c r="D75" s="5">
+        <v>11</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6">
+        <v>11.98</v>
+      </c>
+      <c r="H75" s="6">
+        <v>3.9965556735419163</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6">
+        <v>12.78</v>
+      </c>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="5">
+        <v>4</v>
+      </c>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6">
+        <v>8.14</v>
+      </c>
+      <c r="T75" s="6">
+        <v>-15.932244326458086</v>
+      </c>
+      <c r="U75" s="5"/>
+      <c r="V75" t="s">
+        <v>53</v>
+      </c>
+      <c r="W75" s="7">
+        <v>0</v>
+      </c>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6">
+        <v>67.806687591038937</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1.3580546144415078</v>
+      </c>
+      <c r="C76" s="5">
+        <v>50</v>
+      </c>
+      <c r="D76" s="5">
+        <v>40</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6">
+        <v>9.48</v>
+      </c>
+      <c r="H76" s="6">
+        <v>6.7427453855584929</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="5">
+        <v>6</v>
+      </c>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6">
+        <v>9.98</v>
+      </c>
+      <c r="S76" s="6">
+        <v>2.96</v>
+      </c>
+      <c r="T76" s="6">
+        <v>5.0699453855584933</v>
+      </c>
+      <c r="U76" s="5"/>
+      <c r="V76" t="s">
+        <v>53</v>
+      </c>
+      <c r="W76" s="7">
+        <v>11.799353999999999</v>
+      </c>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6">
+        <v>54.322184577660309</v>
+      </c>
+      <c r="Z76" s="6">
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="AA76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>